--- a/project-business-association.xlsx
+++ b/project-business-association.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckwon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. Project\business-association\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C6A7EB-BD3F-46A1-A56C-2B68ABA416AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10140" windowHeight="4200" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="27030" windowHeight="20835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -234,14 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST /user/account/signup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST /user/account/signin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>성공
 1. 로그인 성공 / 200
 실패 
@@ -383,11 +375,19 @@
 1. ADMIN 회원 로그인 세션이 유효하여야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>POST /user/signup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /user/signin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -716,7 +716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -817,11 +817,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -832,7 +832,7 @@
     <col min="4" max="4" width="59.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="48.875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
@@ -874,10 +874,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>39</v>
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="132" x14ac:dyDescent="0.3">
@@ -900,36 +900,36 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="165" x14ac:dyDescent="0.3">
@@ -937,13 +937,13 @@
         <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
@@ -957,13 +957,13 @@
         <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>42</v>
@@ -986,39 +986,40 @@
         <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>